--- a/EstimatedActiveCasesOverTimeByCounty/2021-03-23.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-03-23.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="366">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/22/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/23/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>Active Cases 03-21</t>
+  </si>
+  <si>
+    <t>Active Cases 03-22</t>
   </si>
   <si>
     <t/>
@@ -1324,6 +1327,7 @@
     <col min="100" max="100" width="12.0" customWidth="true"/>
     <col min="101" max="101" width="12.0" customWidth="true"/>
     <col min="102" max="102" width="12.0" customWidth="true"/>
+    <col min="103" max="103" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1643,13 +1647,16 @@
       <c r="CX3" t="s" s="10">
         <v>103</v>
       </c>
+      <c r="CY3" t="s" s="10">
+        <v>104</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1950,14 +1957,17 @@
       </c>
       <c r="CX4" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -2258,14 +2268,17 @@
       </c>
       <c r="CX5" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2566,14 +2579,17 @@
       </c>
       <c r="CX6" t="n">
         <v>129.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>242.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2874,14 +2890,17 @@
       </c>
       <c r="CX7" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -3181,15 +3200,18 @@
         <v>1.0</v>
       </c>
       <c r="CX8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -3490,14 +3512,17 @@
       </c>
       <c r="CX9" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -3798,14 +3823,17 @@
       </c>
       <c r="CX10" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -4106,14 +4134,17 @@
       </c>
       <c r="CX11" t="n">
         <v>55.0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -4414,14 +4445,17 @@
       </c>
       <c r="CX12" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -4722,14 +4756,17 @@
       </c>
       <c r="CX13" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -5030,14 +5067,17 @@
       </c>
       <c r="CX14" t="n">
         <v>201.0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -5337,15 +5377,18 @@
         <v>0.0</v>
       </c>
       <c r="CX15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -5646,14 +5689,17 @@
       </c>
       <c r="CX16" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -5954,14 +6000,17 @@
       </c>
       <c r="CX17" t="n">
         <v>284.0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>261.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -6262,14 +6311,17 @@
       </c>
       <c r="CX18" t="n">
         <v>4410.0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>4897.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -6569,15 +6621,18 @@
         <v>11.0</v>
       </c>
       <c r="CX19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CY19" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -6878,14 +6933,17 @@
       </c>
       <c r="CX20" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -7186,14 +7244,17 @@
       </c>
       <c r="CX21" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -7494,14 +7555,17 @@
       </c>
       <c r="CX22" t="n">
         <v>430.0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>436.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -7802,14 +7866,17 @@
       </c>
       <c r="CX23" t="n">
         <v>2268.0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>2334.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -8110,14 +8177,17 @@
       </c>
       <c r="CX24" t="n">
         <v>894.0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>910.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -8417,15 +8487,18 @@
         <v>11.0</v>
       </c>
       <c r="CX25" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CY25" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -8725,15 +8798,18 @@
         <v>0.0</v>
       </c>
       <c r="CX26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -9033,15 +9109,18 @@
         <v>13.0</v>
       </c>
       <c r="CX27" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CY27" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -9341,15 +9420,18 @@
         <v>64.0</v>
       </c>
       <c r="CX28" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="CY28" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -9650,14 +9732,17 @@
       </c>
       <c r="CX29" t="n">
         <v>64.0</v>
+      </c>
+      <c r="CY29" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -9958,14 +10043,17 @@
       </c>
       <c r="CX30" t="n">
         <v>178.0</v>
+      </c>
+      <c r="CY30" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -10266,14 +10354,17 @@
       </c>
       <c r="CX31" t="n">
         <v>107.0</v>
+      </c>
+      <c r="CY31" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -10574,14 +10665,17 @@
       </c>
       <c r="CX32" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CY32" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -10882,14 +10976,17 @@
       </c>
       <c r="CX33" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CY33" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -11190,14 +11287,17 @@
       </c>
       <c r="CX34" t="n">
         <v>1971.0</v>
+      </c>
+      <c r="CY34" t="n">
+        <v>1914.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -11498,14 +11598,17 @@
       </c>
       <c r="CX35" t="n">
         <v>145.0</v>
+      </c>
+      <c r="CY35" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -11806,14 +11909,17 @@
       </c>
       <c r="CX36" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CY36" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -12114,14 +12220,17 @@
       </c>
       <c r="CX37" t="n">
         <v>83.0</v>
+      </c>
+      <c r="CY37" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -12422,14 +12531,17 @@
       </c>
       <c r="CX38" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CY38" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -12729,15 +12841,18 @@
         <v>150.0</v>
       </c>
       <c r="CX39" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="CY39" t="n">
         <v>150.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -13037,15 +13152,18 @@
         <v>0.0</v>
       </c>
       <c r="CX40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -13346,14 +13464,17 @@
       </c>
       <c r="CX41" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CY41" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -13653,15 +13774,18 @@
         <v>3.0</v>
       </c>
       <c r="CX42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CY42" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -13962,14 +14086,17 @@
       </c>
       <c r="CX43" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CY43" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -14269,15 +14396,18 @@
         <v>0.0</v>
       </c>
       <c r="CX44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY44" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -14578,14 +14708,17 @@
       </c>
       <c r="CX45" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CY45" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -14886,14 +15019,17 @@
       </c>
       <c r="CX46" t="n">
         <v>974.0</v>
+      </c>
+      <c r="CY46" t="n">
+        <v>972.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -15194,14 +15330,17 @@
       </c>
       <c r="CX47" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CY47" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -15502,14 +15641,17 @@
       </c>
       <c r="CX48" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CY48" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -15810,14 +15952,17 @@
       </c>
       <c r="CX49" t="n">
         <v>182.0</v>
+      </c>
+      <c r="CY49" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -16118,14 +16263,17 @@
       </c>
       <c r="CX50" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CY50" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -16425,15 +16573,18 @@
         <v>44.0</v>
       </c>
       <c r="CX51" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CY51" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -16734,14 +16885,17 @@
       </c>
       <c r="CX52" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CY52" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -17042,14 +17196,17 @@
       </c>
       <c r="CX53" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CY53" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -17349,15 +17506,18 @@
         <v>1.0</v>
       </c>
       <c r="CX54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY54" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -17658,14 +17818,17 @@
       </c>
       <c r="CX55" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CY55" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -17965,15 +18128,18 @@
         <v>2.0</v>
       </c>
       <c r="CX56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CY56" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -18274,14 +18440,17 @@
       </c>
       <c r="CX57" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CY57" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -18582,14 +18751,17 @@
       </c>
       <c r="CX58" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CY58" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -18889,15 +19061,18 @@
         <v>74.0</v>
       </c>
       <c r="CX59" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CY59" t="n">
         <v>74.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -19198,14 +19373,17 @@
       </c>
       <c r="CX60" t="n">
         <v>5773.0</v>
+      </c>
+      <c r="CY60" t="n">
+        <v>5818.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -19505,15 +19683,18 @@
         <v>4.0</v>
       </c>
       <c r="CX61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CY61" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -19814,14 +19995,17 @@
       </c>
       <c r="CX62" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CY62" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -20121,15 +20305,18 @@
         <v>36.0</v>
       </c>
       <c r="CX63" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CY63" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -20430,14 +20617,17 @@
       </c>
       <c r="CX64" t="n">
         <v>8860.0</v>
+      </c>
+      <c r="CY64" t="n">
+        <v>8228.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -20738,14 +20928,17 @@
       </c>
       <c r="CX65" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CY65" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -21046,14 +21239,17 @@
       </c>
       <c r="CX66" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CY66" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -21354,14 +21550,17 @@
       </c>
       <c r="CX67" t="n">
         <v>49.0</v>
+      </c>
+      <c r="CY67" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -21662,14 +21861,17 @@
       </c>
       <c r="CX68" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CY68" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -21970,14 +22172,17 @@
       </c>
       <c r="CX69" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CY69" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -22278,14 +22483,17 @@
       </c>
       <c r="CX70" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CY70" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -22586,14 +22794,17 @@
       </c>
       <c r="CX71" t="n">
         <v>282.0</v>
+      </c>
+      <c r="CY71" t="n">
+        <v>295.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -22893,15 +23104,18 @@
         <v>0.0</v>
       </c>
       <c r="CX72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -23202,14 +23416,17 @@
       </c>
       <c r="CX73" t="n">
         <v>108.0</v>
+      </c>
+      <c r="CY73" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -23510,14 +23727,17 @@
       </c>
       <c r="CX74" t="n">
         <v>2563.0</v>
+      </c>
+      <c r="CY74" t="n">
+        <v>2394.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -23818,14 +24038,17 @@
       </c>
       <c r="CX75" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CY75" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -24125,15 +24348,18 @@
         <v>21.0</v>
       </c>
       <c r="CX76" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CY76" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -24433,15 +24659,18 @@
         <v>10.0</v>
       </c>
       <c r="CX77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CY77" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -24742,14 +24971,17 @@
       </c>
       <c r="CX78" t="n">
         <v>141.0</v>
+      </c>
+      <c r="CY78" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -25049,15 +25281,18 @@
         <v>0.0</v>
       </c>
       <c r="CX79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -25358,14 +25593,17 @@
       </c>
       <c r="CX80" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CY80" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -25665,15 +25903,18 @@
         <v>0.0</v>
       </c>
       <c r="CX81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -25974,14 +26215,17 @@
       </c>
       <c r="CX82" t="n">
         <v>10025.0</v>
+      </c>
+      <c r="CY82" t="n">
+        <v>9752.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -26282,14 +26526,17 @@
       </c>
       <c r="CX83" t="n">
         <v>84.0</v>
+      </c>
+      <c r="CY83" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -26590,14 +26837,17 @@
       </c>
       <c r="CX84" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CY84" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -26898,14 +27148,17 @@
       </c>
       <c r="CX85" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CY85" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -27205,15 +27458,18 @@
         <v>5.0</v>
       </c>
       <c r="CX86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CY86" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -27514,14 +27770,17 @@
       </c>
       <c r="CX87" t="n">
         <v>2987.0</v>
+      </c>
+      <c r="CY87" t="n">
+        <v>3063.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -27822,14 +28081,17 @@
       </c>
       <c r="CX88" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CY88" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -28130,14 +28392,17 @@
       </c>
       <c r="CX89" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CY89" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -28437,15 +28702,18 @@
         <v>1.0</v>
       </c>
       <c r="CX90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY90" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -28745,15 +29013,18 @@
         <v>8.0</v>
       </c>
       <c r="CX91" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CY91" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -29054,14 +29325,17 @@
       </c>
       <c r="CX92" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CY92" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -29362,14 +29636,17 @@
       </c>
       <c r="CX93" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CY93" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -29670,14 +29947,17 @@
       </c>
       <c r="CX94" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CY94" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -29978,14 +30258,17 @@
       </c>
       <c r="CX95" t="n">
         <v>357.0</v>
+      </c>
+      <c r="CY95" t="n">
+        <v>370.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -30286,14 +30569,17 @@
       </c>
       <c r="CX96" t="n">
         <v>64.0</v>
+      </c>
+      <c r="CY96" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -30594,14 +30880,17 @@
       </c>
       <c r="CX97" t="n">
         <v>89.0</v>
+      </c>
+      <c r="CY97" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -30901,15 +31190,18 @@
         <v>11.0</v>
       </c>
       <c r="CX98" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CY98" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -31210,14 +31502,17 @@
       </c>
       <c r="CX99" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CY99" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -31518,14 +31813,17 @@
       </c>
       <c r="CX100" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CY100" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -31826,14 +32124,17 @@
       </c>
       <c r="CX101" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CY101" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -32134,14 +32435,17 @@
       </c>
       <c r="CX102" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CY102" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -32442,14 +32746,17 @@
       </c>
       <c r="CX103" t="n">
         <v>629.0</v>
+      </c>
+      <c r="CY103" t="n">
+        <v>661.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -32750,14 +33057,17 @@
       </c>
       <c r="CX104" t="n">
         <v>12806.0</v>
+      </c>
+      <c r="CY104" t="n">
+        <v>12523.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -33058,14 +33368,17 @@
       </c>
       <c r="CX105" t="n">
         <v>772.0</v>
+      </c>
+      <c r="CY105" t="n">
+        <v>775.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -33366,14 +33679,17 @@
       </c>
       <c r="CX106" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CY106" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -33674,14 +33990,17 @@
       </c>
       <c r="CX107" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CY107" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -33982,14 +34301,17 @@
       </c>
       <c r="CX108" t="n">
         <v>421.0</v>
+      </c>
+      <c r="CY108" t="n">
+        <v>423.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -34289,15 +34611,18 @@
         <v>1.0</v>
       </c>
       <c r="CX109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY109" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -34598,14 +34923,17 @@
       </c>
       <c r="CX110" t="n">
         <v>385.0</v>
+      </c>
+      <c r="CY110" t="n">
+        <v>395.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -34906,14 +35234,17 @@
       </c>
       <c r="CX111" t="n">
         <v>2112.0</v>
+      </c>
+      <c r="CY111" t="n">
+        <v>2140.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -35214,14 +35545,17 @@
       </c>
       <c r="CX112" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CY112" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -35521,15 +35855,18 @@
         <v>29.0</v>
       </c>
       <c r="CX113" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="CY113" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -35830,14 +36167,17 @@
       </c>
       <c r="CX114" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CY114" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B115" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -36138,14 +36478,17 @@
       </c>
       <c r="CX115" t="n">
         <v>135.0</v>
+      </c>
+      <c r="CY115" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B116" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -36445,15 +36788,18 @@
         <v>54.0</v>
       </c>
       <c r="CX116" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CY116" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -36753,15 +37099,18 @@
         <v>47.0</v>
       </c>
       <c r="CX117" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CY117" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B118" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -37062,14 +37411,17 @@
       </c>
       <c r="CX118" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CY118" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -37369,15 +37721,18 @@
         <v>45.0</v>
       </c>
       <c r="CX119" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CY119" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -37678,14 +38033,17 @@
       </c>
       <c r="CX120" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CY120" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -37986,14 +38344,17 @@
       </c>
       <c r="CX121" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CY121" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -38294,14 +38655,17 @@
       </c>
       <c r="CX122" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CY122" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -38602,14 +38966,17 @@
       </c>
       <c r="CX123" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CY123" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -38910,14 +39277,17 @@
       </c>
       <c r="CX124" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CY124" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -39217,15 +39587,18 @@
         <v>1.0</v>
       </c>
       <c r="CX125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY125" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -39526,14 +39899,17 @@
       </c>
       <c r="CX126" t="n">
         <v>705.0</v>
+      </c>
+      <c r="CY126" t="n">
+        <v>634.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -39834,14 +40210,17 @@
       </c>
       <c r="CX127" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CY127" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -40142,14 +40521,17 @@
       </c>
       <c r="CX128" t="n">
         <v>106.0</v>
+      </c>
+      <c r="CY128" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -40450,14 +40832,17 @@
       </c>
       <c r="CX129" t="n">
         <v>114.0</v>
+      </c>
+      <c r="CY129" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -40758,14 +41143,17 @@
       </c>
       <c r="CX130" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CY130" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -41065,15 +41453,18 @@
         <v>8.0</v>
       </c>
       <c r="CX131" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CY131" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -41374,14 +41765,17 @@
       </c>
       <c r="CX132" t="n">
         <v>119.0</v>
+      </c>
+      <c r="CY132" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -41682,14 +42076,17 @@
       </c>
       <c r="CX133" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CY133" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -41989,15 +42386,18 @@
         <v>2.0</v>
       </c>
       <c r="CX134" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CY134" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -42298,14 +42698,17 @@
       </c>
       <c r="CX135" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CY135" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -42606,14 +43009,17 @@
       </c>
       <c r="CX136" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CY136" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -42913,15 +43319,18 @@
         <v>2.0</v>
       </c>
       <c r="CX137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CY137" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -43221,15 +43630,18 @@
         <v>0.0</v>
       </c>
       <c r="CX138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -43529,15 +43941,18 @@
         <v>0.0</v>
       </c>
       <c r="CX139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -43837,15 +44252,18 @@
         <v>76.0</v>
       </c>
       <c r="CX140" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="CY140" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -44146,14 +44564,17 @@
       </c>
       <c r="CX141" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CY141" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -44454,14 +44875,17 @@
       </c>
       <c r="CX142" t="n">
         <v>108.0</v>
+      </c>
+      <c r="CY142" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -44762,14 +45186,17 @@
       </c>
       <c r="CX143" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CY143" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B144" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -45070,14 +45497,17 @@
       </c>
       <c r="CX144" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CY144" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B145" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -45378,14 +45808,17 @@
       </c>
       <c r="CX145" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CY145" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B146" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -45686,14 +46119,17 @@
       </c>
       <c r="CX146" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CY146" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B147" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -45994,14 +46430,17 @@
       </c>
       <c r="CX147" t="n">
         <v>62.0</v>
+      </c>
+      <c r="CY147" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B148" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -46302,14 +46741,17 @@
       </c>
       <c r="CX148" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CY148" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B149" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -46610,14 +47052,17 @@
       </c>
       <c r="CX149" t="n">
         <v>89.0</v>
+      </c>
+      <c r="CY149" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B150" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -46918,14 +47363,17 @@
       </c>
       <c r="CX150" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CY150" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B151" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -47226,14 +47674,17 @@
       </c>
       <c r="CX151" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CY151" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B152" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -47534,14 +47985,17 @@
       </c>
       <c r="CX152" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CY152" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -47842,14 +48296,17 @@
       </c>
       <c r="CX153" t="n">
         <v>54.0</v>
+      </c>
+      <c r="CY153" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -48149,15 +48606,18 @@
         <v>0.0</v>
       </c>
       <c r="CX154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -48458,14 +48918,17 @@
       </c>
       <c r="CX155" t="n">
         <v>155.0</v>
+      </c>
+      <c r="CY155" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -48765,15 +49228,18 @@
         <v>2.0</v>
       </c>
       <c r="CX156" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CY156" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -49074,14 +49540,17 @@
       </c>
       <c r="CX157" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CY157" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -49382,14 +49851,17 @@
       </c>
       <c r="CX158" t="n">
         <v>211.0</v>
+      </c>
+      <c r="CY158" t="n">
+        <v>198.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -49689,15 +50161,18 @@
         <v>1.0</v>
       </c>
       <c r="CX159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY159" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -49998,14 +50473,17 @@
       </c>
       <c r="CX160" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CY160" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -50306,14 +50784,17 @@
       </c>
       <c r="CX161" t="n">
         <v>98.0</v>
+      </c>
+      <c r="CY161" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B162" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -50613,15 +51094,18 @@
         <v>7.0</v>
       </c>
       <c r="CX162" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CY162" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -50921,15 +51405,18 @@
         <v>7.0</v>
       </c>
       <c r="CX163" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CY163" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B164" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -51230,14 +51717,17 @@
       </c>
       <c r="CX164" t="n">
         <v>88.0</v>
+      </c>
+      <c r="CY164" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B165" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -51538,14 +52028,17 @@
       </c>
       <c r="CX165" t="n">
         <v>888.0</v>
+      </c>
+      <c r="CY165" t="n">
+        <v>858.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -51846,14 +52339,17 @@
       </c>
       <c r="CX166" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CY166" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B167" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -52153,15 +52649,18 @@
         <v>2.0</v>
       </c>
       <c r="CX167" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CY167" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -52462,14 +52961,17 @@
       </c>
       <c r="CX168" t="n">
         <v>298.0</v>
+      </c>
+      <c r="CY168" t="n">
+        <v>261.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B169" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -52770,14 +53272,17 @@
       </c>
       <c r="CX169" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CY169" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B170" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -53078,14 +53583,17 @@
       </c>
       <c r="CX170" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CY170" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B171" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -53386,14 +53894,17 @@
       </c>
       <c r="CX171" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CY171" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B172" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -53694,14 +54205,17 @@
       </c>
       <c r="CX172" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CY172" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B173" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -54002,14 +54516,17 @@
       </c>
       <c r="CX173" t="n">
         <v>22697.0</v>
+      </c>
+      <c r="CY173" t="n">
+        <v>22748.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B174" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -54309,15 +54826,18 @@
         <v>16.0</v>
       </c>
       <c r="CX174" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CY174" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -54618,14 +55138,17 @@
       </c>
       <c r="CX175" t="n">
         <v>87.0</v>
+      </c>
+      <c r="CY175" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B176" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -54925,15 +55448,18 @@
         <v>1.0</v>
       </c>
       <c r="CX176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY176" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B177" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -55234,14 +55760,17 @@
       </c>
       <c r="CX177" t="n">
         <v>245.0</v>
+      </c>
+      <c r="CY177" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B178" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -55542,14 +56071,17 @@
       </c>
       <c r="CX178" t="n">
         <v>51.0</v>
+      </c>
+      <c r="CY178" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B179" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -55850,14 +56382,17 @@
       </c>
       <c r="CX179" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CY179" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B180" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -56158,14 +56693,17 @@
       </c>
       <c r="CX180" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CY180" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B181" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -56466,14 +57004,17 @@
       </c>
       <c r="CX181" t="n">
         <v>899.0</v>
+      </c>
+      <c r="CY181" t="n">
+        <v>895.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B182" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -56774,14 +57315,17 @@
       </c>
       <c r="CX182" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CY182" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B183" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -57081,15 +57625,18 @@
         <v>2.0</v>
       </c>
       <c r="CX183" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CY183" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B184" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -57390,14 +57937,17 @@
       </c>
       <c r="CX184" t="n">
         <v>571.0</v>
+      </c>
+      <c r="CY184" t="n">
+        <v>651.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B185" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -57698,14 +58248,17 @@
       </c>
       <c r="CX185" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CY185" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B186" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -58006,14 +58559,17 @@
       </c>
       <c r="CX186" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CY186" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B187" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -58314,14 +58870,17 @@
       </c>
       <c r="CX187" t="n">
         <v>68.0</v>
+      </c>
+      <c r="CY187" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B188" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -58622,14 +59181,17 @@
       </c>
       <c r="CX188" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CY188" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B189" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -58930,14 +59492,17 @@
       </c>
       <c r="CX189" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CY189" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B190" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -59238,14 +59803,17 @@
       </c>
       <c r="CX190" t="n">
         <v>59.0</v>
+      </c>
+      <c r="CY190" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B191" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -59546,14 +60114,17 @@
       </c>
       <c r="CX191" t="n">
         <v>159.0</v>
+      </c>
+      <c r="CY191" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B192" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -59854,14 +60425,17 @@
       </c>
       <c r="CX192" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CY192" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B193" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -60162,14 +60736,17 @@
       </c>
       <c r="CX193" t="n">
         <v>42.0</v>
+      </c>
+      <c r="CY193" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B194" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -60470,14 +61047,17 @@
       </c>
       <c r="CX194" t="n">
         <v>153.0</v>
+      </c>
+      <c r="CY194" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B195" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -60777,15 +61357,18 @@
         <v>9.0</v>
       </c>
       <c r="CX195" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CY195" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B196" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -61085,15 +61668,18 @@
         <v>0.0</v>
       </c>
       <c r="CX196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY196" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B197" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -61393,15 +61979,18 @@
         <v>7.0</v>
       </c>
       <c r="CX197" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CY197" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B198" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -61701,15 +62290,18 @@
         <v>0.0</v>
       </c>
       <c r="CX198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY198" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B199" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -62010,14 +62602,17 @@
       </c>
       <c r="CX199" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CY199" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B200" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -62317,15 +62912,18 @@
         <v>0.0</v>
       </c>
       <c r="CX200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B201" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -62626,14 +63224,17 @@
       </c>
       <c r="CX201" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CY201" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B202" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -62934,14 +63535,17 @@
       </c>
       <c r="CX202" t="n">
         <v>87.0</v>
+      </c>
+      <c r="CY202" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B203" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -63241,15 +63845,18 @@
         <v>1.0</v>
       </c>
       <c r="CX203" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY203" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B204" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -63550,14 +64157,17 @@
       </c>
       <c r="CX204" t="n">
         <v>313.0</v>
+      </c>
+      <c r="CY204" t="n">
+        <v>312.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B205" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -63857,15 +64467,18 @@
         <v>0.0</v>
       </c>
       <c r="CX205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B206" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -64166,14 +64779,17 @@
       </c>
       <c r="CX206" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CY206" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B207" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -64474,14 +65090,17 @@
       </c>
       <c r="CX207" t="n">
         <v>194.0</v>
+      </c>
+      <c r="CY207" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B208" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -64781,15 +65400,18 @@
         <v>58.0</v>
       </c>
       <c r="CX208" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CY208" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B209" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -65089,15 +65711,18 @@
         <v>0.0</v>
       </c>
       <c r="CX209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY209" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B210" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -65398,14 +66023,17 @@
       </c>
       <c r="CX210" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CY210" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B211" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -65705,15 +66333,18 @@
         <v>0.0</v>
       </c>
       <c r="CX211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B212" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -66014,14 +66645,17 @@
       </c>
       <c r="CX212" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CY212" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B213" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -66321,15 +66955,18 @@
         <v>87.0</v>
       </c>
       <c r="CX213" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="CY213" t="n">
         <v>84.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B214" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -66629,15 +67266,18 @@
         <v>12.0</v>
       </c>
       <c r="CX214" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CY214" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B215" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -66938,14 +67578,17 @@
       </c>
       <c r="CX215" t="n">
         <v>1082.0</v>
+      </c>
+      <c r="CY215" t="n">
+        <v>1141.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B216" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -67246,14 +67889,17 @@
       </c>
       <c r="CX216" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CY216" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B217" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -67554,14 +68200,17 @@
       </c>
       <c r="CX217" t="n">
         <v>225.0</v>
+      </c>
+      <c r="CY217" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B218" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -67861,15 +68510,18 @@
         <v>1.0</v>
       </c>
       <c r="CX218" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY218" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B219" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -68170,14 +68822,17 @@
       </c>
       <c r="CX219" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CY219" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B220" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -68477,15 +69132,18 @@
         <v>0.0</v>
       </c>
       <c r="CX220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B221" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -68785,15 +69443,18 @@
         <v>7.0</v>
       </c>
       <c r="CX221" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CY221" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B222" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -69094,14 +69755,17 @@
       </c>
       <c r="CX222" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CY222" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B223" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -69402,14 +70066,17 @@
       </c>
       <c r="CX223" t="n">
         <v>7557.0</v>
+      </c>
+      <c r="CY223" t="n">
+        <v>7299.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B224" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -69710,14 +70377,17 @@
       </c>
       <c r="CX224" t="n">
         <v>237.0</v>
+      </c>
+      <c r="CY224" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B225" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -70017,15 +70687,18 @@
         <v>0.0</v>
       </c>
       <c r="CX225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B226" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -70325,15 +70998,18 @@
         <v>2.0</v>
       </c>
       <c r="CX226" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CY226" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B227" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -70633,15 +71309,18 @@
         <v>0.0</v>
       </c>
       <c r="CX227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B228" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -70942,14 +71621,17 @@
       </c>
       <c r="CX228" t="n">
         <v>332.0</v>
+      </c>
+      <c r="CY228" t="n">
+        <v>331.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B229" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -71250,14 +71932,17 @@
       </c>
       <c r="CX229" t="n">
         <v>132.0</v>
+      </c>
+      <c r="CY229" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B230" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -71558,14 +72243,17 @@
       </c>
       <c r="CX230" t="n">
         <v>1120.0</v>
+      </c>
+      <c r="CY230" t="n">
+        <v>1083.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B231" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -71865,15 +72553,18 @@
         <v>72.0</v>
       </c>
       <c r="CX231" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CY231" t="n">
         <v>73.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B232" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -72174,14 +72865,17 @@
       </c>
       <c r="CX232" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CY232" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B233" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -72482,14 +73176,17 @@
       </c>
       <c r="CX233" t="n">
         <v>429.0</v>
+      </c>
+      <c r="CY233" t="n">
+        <v>434.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B234" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -72790,14 +73487,17 @@
       </c>
       <c r="CX234" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CY234" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B235" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -73097,15 +73797,18 @@
         <v>0.0</v>
       </c>
       <c r="CX235" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY235" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B236" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -73405,15 +74108,18 @@
         <v>137.0</v>
       </c>
       <c r="CX236" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="CY236" t="n">
         <v>137.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B237" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -73714,14 +74420,17 @@
       </c>
       <c r="CX237" t="n">
         <v>275.0</v>
+      </c>
+      <c r="CY237" t="n">
+        <v>280.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B238" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -74022,14 +74731,17 @@
       </c>
       <c r="CX238" t="n">
         <v>78.0</v>
+      </c>
+      <c r="CY238" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B239" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -74330,14 +75042,17 @@
       </c>
       <c r="CX239" t="n">
         <v>66.0</v>
+      </c>
+      <c r="CY239" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B240" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -74638,14 +75353,17 @@
       </c>
       <c r="CX240" t="n">
         <v>145.0</v>
+      </c>
+      <c r="CY240" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B241" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -74945,15 +75663,18 @@
         <v>28.0</v>
       </c>
       <c r="CX241" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CY241" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B242" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -75254,14 +75975,17 @@
       </c>
       <c r="CX242" t="n">
         <v>101.0</v>
+      </c>
+      <c r="CY242" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B243" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -75562,14 +76286,17 @@
       </c>
       <c r="CX243" t="n">
         <v>310.0</v>
+      </c>
+      <c r="CY243" t="n">
+        <v>255.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B244" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -75870,14 +76597,17 @@
       </c>
       <c r="CX244" t="n">
         <v>48.0</v>
+      </c>
+      <c r="CY244" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B245" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -76178,14 +76908,17 @@
       </c>
       <c r="CX245" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CY245" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B246" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -76486,14 +77219,17 @@
       </c>
       <c r="CX246" t="n">
         <v>82.0</v>
+      </c>
+      <c r="CY246" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B247" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -76794,14 +77530,17 @@
       </c>
       <c r="CX247" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CY247" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B248" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -77102,14 +77841,17 @@
       </c>
       <c r="CX248" t="n">
         <v>80.0</v>
+      </c>
+      <c r="CY248" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B249" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -77409,15 +78151,18 @@
         <v>0.0</v>
       </c>
       <c r="CX249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY249" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B250" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -77718,14 +78463,17 @@
       </c>
       <c r="CX250" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CY250" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B251" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -78025,15 +78773,18 @@
         <v>23.0</v>
       </c>
       <c r="CX251" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CY251" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B252" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -78334,14 +79085,17 @@
       </c>
       <c r="CX252" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CY252" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B253" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -78642,14 +79396,17 @@
       </c>
       <c r="CX253" t="n">
         <v>190.0</v>
+      </c>
+      <c r="CY253" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B254" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -78949,15 +79706,18 @@
         <v>0.0</v>
       </c>
       <c r="CX254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B255" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -79258,14 +80018,17 @@
       </c>
       <c r="CX255" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CY255" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B256" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -79566,14 +80329,17 @@
       </c>
       <c r="CX256" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CY256" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B257" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -79873,15 +80639,18 @@
         <v>4.0</v>
       </c>
       <c r="CX257" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CY257" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B258" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -79983,13 +80752,14 @@
       <c r="CV258"/>
       <c r="CW258"/>
       <c r="CX258"/>
+      <c r="CY258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B259" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -80091,13 +80861,14 @@
       <c r="CV259"/>
       <c r="CW259"/>
       <c r="CX259"/>
+      <c r="CY259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B260" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -80199,13 +80970,14 @@
       <c r="CV260"/>
       <c r="CW260"/>
       <c r="CX260"/>
+      <c r="CY260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B261" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -80307,13 +81079,14 @@
       <c r="CV261"/>
       <c r="CW261"/>
       <c r="CX261"/>
+      <c r="CY261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B262" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -80415,13 +81188,14 @@
       <c r="CV262"/>
       <c r="CW262"/>
       <c r="CX262"/>
+      <c r="CY262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B263" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -80523,6 +81297,7 @@
       <c r="CV263"/>
       <c r="CW263"/>
       <c r="CX263"/>
+      <c r="CY263"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
